--- a/testCases/m1.xlsx
+++ b/testCases/m1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myGitHub\leetcode\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210A159F-768D-42CF-97FE-D86D829F1C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191641A2-AAEF-42E3-9BC6-2FB0A89BFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Case ID</t>
   </si>
@@ -96,17 +96,13 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,66 +137,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,16 +177,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,16 +460,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="12.88671875"/>
-    <col min="2" max="2" customWidth="true" style="1" width="13.6640625"/>
-    <col min="3" max="3" customWidth="true" style="1" width="13.0"/>
-    <col min="4" max="4" customWidth="true" style="5" width="16.44140625"/>
-    <col min="5" max="16384" style="1" width="8.88671875"/>
+    <col min="1" max="1" width="12.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
@@ -576,7 +502,7 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="16">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -593,7 +519,7 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -610,7 +536,7 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="16">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -627,7 +553,7 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s" s="16">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -644,7 +570,7 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="16">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -661,12 +587,13 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="17">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>